--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5210416666666667</v>
+        <v>1.876536</v>
       </c>
       <c r="H2">
-        <v>1.563125</v>
+        <v>5.629607999999999</v>
       </c>
       <c r="I2">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="J2">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N2">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O2">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P2">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q2">
-        <v>8.663945442500003</v>
+        <v>32.506705821384</v>
       </c>
       <c r="R2">
-        <v>77.97550898250002</v>
+        <v>292.560352392456</v>
       </c>
       <c r="S2">
-        <v>0.0002116108991576707</v>
+        <v>0.0005199832208385767</v>
       </c>
       <c r="T2">
-        <v>0.0002116108991576708</v>
+        <v>0.0005199832208385765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5210416666666667</v>
+        <v>1.876536</v>
       </c>
       <c r="H3">
-        <v>1.563125</v>
+        <v>5.629607999999999</v>
       </c>
       <c r="I3">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="J3">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>25.24588</v>
       </c>
       <c r="O3">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P3">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q3">
-        <v>4.384718463888889</v>
+        <v>15.79160089056</v>
       </c>
       <c r="R3">
-        <v>39.462466175</v>
+        <v>142.12440801504</v>
       </c>
       <c r="S3">
-        <v>0.0001070937280081757</v>
+        <v>0.0002526053405223549</v>
       </c>
       <c r="T3">
-        <v>0.0001070937280081757</v>
+        <v>0.0002526053405223549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5210416666666667</v>
+        <v>1.876536</v>
       </c>
       <c r="H4">
-        <v>1.563125</v>
+        <v>5.629607999999999</v>
       </c>
       <c r="I4">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="J4">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N4">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O4">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P4">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q4">
-        <v>53.19919408583334</v>
+        <v>216.971296773528</v>
       </c>
       <c r="R4">
-        <v>478.7927467725</v>
+        <v>1952.741670961752</v>
       </c>
       <c r="S4">
-        <v>0.001299353668565836</v>
+        <v>0.003470712607599999</v>
       </c>
       <c r="T4">
-        <v>0.001299353668565836</v>
+        <v>0.003470712607599999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5210416666666667</v>
+        <v>1.876536</v>
       </c>
       <c r="H5">
-        <v>1.563125</v>
+        <v>5.629607999999999</v>
       </c>
       <c r="I5">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="J5">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N5">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O5">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P5">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q5">
-        <v>2.434261509722222</v>
+        <v>6.091060087128</v>
       </c>
       <c r="R5">
-        <v>21.9083535875</v>
+        <v>54.819540784152</v>
       </c>
       <c r="S5">
-        <v>5.945516050117121E-05</v>
+        <v>9.74337129030957E-05</v>
       </c>
       <c r="T5">
-        <v>5.945516050117122E-05</v>
+        <v>9.743371290309569E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5210416666666667</v>
+        <v>1.876536</v>
       </c>
       <c r="H6">
-        <v>1.563125</v>
+        <v>5.629607999999999</v>
       </c>
       <c r="I6">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="J6">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N6">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O6">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P6">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q6">
-        <v>90.60733538722224</v>
+        <v>401.9984832266639</v>
       </c>
       <c r="R6">
-        <v>815.4660184850001</v>
+        <v>3617.986349039975</v>
       </c>
       <c r="S6">
-        <v>0.002213021750750796</v>
+        <v>0.006430441375050519</v>
       </c>
       <c r="T6">
-        <v>0.002213021750750796</v>
+        <v>0.006430441375050517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5210416666666667</v>
+        <v>1.876536</v>
       </c>
       <c r="H7">
-        <v>1.563125</v>
+        <v>5.629607999999999</v>
       </c>
       <c r="I7">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="J7">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N7">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O7">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P7">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q7">
-        <v>52.6646055095139</v>
+        <v>203.5771495194</v>
       </c>
       <c r="R7">
-        <v>473.9814495856251</v>
+        <v>1832.1943456746</v>
       </c>
       <c r="S7">
-        <v>0.001286296710847767</v>
+        <v>0.003256457374607242</v>
       </c>
       <c r="T7">
-        <v>0.001286296710847767</v>
+        <v>0.003256457374607241</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.495361333333334</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H8">
         <v>10.486084</v>
       </c>
       <c r="I8">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="J8">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N8">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O8">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P8">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q8">
-        <v>58.12130167547202</v>
+        <v>60.54916218079867</v>
       </c>
       <c r="R8">
-        <v>523.0917150792482</v>
+        <v>544.942459627188</v>
       </c>
       <c r="S8">
-        <v>0.00141957275578272</v>
+        <v>0.0009685554895303306</v>
       </c>
       <c r="T8">
-        <v>0.00141957275578272</v>
+        <v>0.0009685554895303303</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.495361333333334</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H9">
         <v>10.486084</v>
       </c>
       <c r="I9">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="J9">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>25.24588</v>
       </c>
       <c r="O9">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P9">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q9">
-        <v>29.41449092599111</v>
+        <v>29.4144909259911</v>
       </c>
       <c r="R9">
-        <v>264.7304183339201</v>
+        <v>264.7304183339199</v>
       </c>
       <c r="S9">
-        <v>0.0007184286782994852</v>
+        <v>0.0004705195849455268</v>
       </c>
       <c r="T9">
-        <v>0.0007184286782994854</v>
+        <v>0.0004705195849455268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.495361333333334</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H10">
         <v>10.486084</v>
       </c>
       <c r="I10">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="J10">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N10">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O10">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P10">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q10">
-        <v>356.8820266558027</v>
+        <v>404.1452341896884</v>
       </c>
       <c r="R10">
-        <v>3211.938239902225</v>
+        <v>3637.307107707195</v>
       </c>
       <c r="S10">
-        <v>0.008716597658082054</v>
+        <v>0.006464781196693026</v>
       </c>
       <c r="T10">
-        <v>0.008716597658082057</v>
+        <v>0.006464781196693025</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.495361333333334</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H11">
         <v>10.486084</v>
       </c>
       <c r="I11">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="J11">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N11">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O11">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P11">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q11">
-        <v>16.33002521801778</v>
+        <v>11.34561548915511</v>
       </c>
       <c r="R11">
-        <v>146.97022696216</v>
+        <v>102.110539402396</v>
       </c>
       <c r="S11">
-        <v>0.0003988496167924915</v>
+        <v>0.0001814865436338987</v>
       </c>
       <c r="T11">
-        <v>0.0003988496167924916</v>
+        <v>0.0001814865436338987</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.495361333333334</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H12">
         <v>10.486084</v>
       </c>
       <c r="I12">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="J12">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N12">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O12">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P12">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q12">
-        <v>607.8311906511539</v>
+        <v>748.7892341682385</v>
       </c>
       <c r="R12">
-        <v>5470.480715860384</v>
+        <v>6739.103107514146</v>
       </c>
       <c r="S12">
-        <v>0.01484585811896035</v>
+        <v>0.01197776975161596</v>
       </c>
       <c r="T12">
-        <v>0.01484585811896036</v>
+        <v>0.01197776975161596</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.495361333333334</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H13">
         <v>10.486084</v>
       </c>
       <c r="I13">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="J13">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N13">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O13">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P13">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q13">
-        <v>353.2957870929232</v>
+        <v>379.1964005914777</v>
       </c>
       <c r="R13">
-        <v>3179.662083836309</v>
+        <v>3412.767605323299</v>
       </c>
       <c r="S13">
-        <v>0.0086290062271881</v>
+        <v>0.006065695084373727</v>
       </c>
       <c r="T13">
-        <v>0.0086290062271881</v>
+        <v>0.006065695084373725</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.058253</v>
+        <v>22.670672</v>
       </c>
       <c r="H14">
-        <v>42.174759</v>
+        <v>68.012016</v>
       </c>
       <c r="I14">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="J14">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N14">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O14">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P14">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q14">
-        <v>233.7623741073721</v>
+        <v>392.7176805971681</v>
       </c>
       <c r="R14">
-        <v>2103.861366966348</v>
+        <v>3534.459125374512</v>
       </c>
       <c r="S14">
-        <v>0.005709484957215875</v>
+        <v>0.006281983956148423</v>
       </c>
       <c r="T14">
-        <v>0.005709484957215876</v>
+        <v>0.006281983956148422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.058253</v>
+        <v>22.670672</v>
       </c>
       <c r="H15">
-        <v>42.174759</v>
+        <v>68.012016</v>
       </c>
       <c r="I15">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="J15">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>25.24588</v>
       </c>
       <c r="O15">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P15">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q15">
-        <v>118.3043227492133</v>
+        <v>190.7803549437866</v>
       </c>
       <c r="R15">
-        <v>1064.73890474292</v>
+        <v>1717.02319449408</v>
       </c>
       <c r="S15">
-        <v>0.002889501587625019</v>
+        <v>0.003051757504481991</v>
       </c>
       <c r="T15">
-        <v>0.00288950158762502</v>
+        <v>0.003051757504481991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.058253</v>
+        <v>22.670672</v>
       </c>
       <c r="H16">
-        <v>42.174759</v>
+        <v>68.012016</v>
       </c>
       <c r="I16">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="J16">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N16">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O16">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P16">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q16">
-        <v>1435.370293203836</v>
+        <v>2621.258053438522</v>
       </c>
       <c r="R16">
-        <v>12918.33263883452</v>
+        <v>23591.3224809467</v>
       </c>
       <c r="S16">
-        <v>0.03505793063736425</v>
+        <v>0.04193012398012311</v>
       </c>
       <c r="T16">
-        <v>0.03505793063736425</v>
+        <v>0.04193012398012311</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.058253</v>
+        <v>22.670672</v>
       </c>
       <c r="H17">
-        <v>42.174759</v>
+        <v>68.012016</v>
       </c>
       <c r="I17">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="J17">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N17">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O17">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P17">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q17">
-        <v>65.67893963407333</v>
+        <v>73.58687782572267</v>
       </c>
       <c r="R17">
-        <v>591.11045670666</v>
+        <v>662.281900431504</v>
       </c>
       <c r="S17">
-        <v>0.001604162856740961</v>
+        <v>0.001177109177211762</v>
       </c>
       <c r="T17">
-        <v>0.001604162856740961</v>
+        <v>0.001177109177211762</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.058253</v>
+        <v>22.670672</v>
       </c>
       <c r="H18">
-        <v>42.174759</v>
+        <v>68.012016</v>
       </c>
       <c r="I18">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="J18">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N18">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O18">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P18">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q18">
-        <v>2444.681348956909</v>
+        <v>4856.595214655727</v>
       </c>
       <c r="R18">
-        <v>22002.13214061219</v>
+        <v>43709.35693190155</v>
       </c>
       <c r="S18">
-        <v>0.05970965789663198</v>
+        <v>0.07768698667598133</v>
       </c>
       <c r="T18">
-        <v>0.05970965789663199</v>
+        <v>0.07768698667598131</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.058253</v>
+        <v>22.670672</v>
       </c>
       <c r="H19">
-        <v>42.174759</v>
+        <v>68.012016</v>
       </c>
       <c r="I19">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="J19">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N19">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O19">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P19">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q19">
-        <v>1420.946530311921</v>
+        <v>2459.441643245467</v>
       </c>
       <c r="R19">
-        <v>12788.51877280729</v>
+        <v>22134.9747892092</v>
       </c>
       <c r="S19">
-        <v>0.03470564016473236</v>
+        <v>0.03934167904143694</v>
       </c>
       <c r="T19">
-        <v>0.03470564016473236</v>
+        <v>0.03934167904143694</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8260706666666667</v>
+        <v>0.5599146666666667</v>
       </c>
       <c r="H20">
-        <v>2.478212</v>
+        <v>1.679744</v>
       </c>
       <c r="I20">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272957</v>
       </c>
       <c r="J20">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272956</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N20">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O20">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P20">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q20">
-        <v>13.736005478096</v>
+        <v>9.699244434645335</v>
       </c>
       <c r="R20">
-        <v>123.624049302864</v>
+        <v>87.293199911808</v>
       </c>
       <c r="S20">
-        <v>0.0003354924715703027</v>
+        <v>0.0001551508906666813</v>
       </c>
       <c r="T20">
-        <v>0.0003354924715703028</v>
+        <v>0.0001551508906666812</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8260706666666667</v>
+        <v>0.5599146666666667</v>
       </c>
       <c r="H21">
-        <v>2.478212</v>
+        <v>1.679744</v>
       </c>
       <c r="I21">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272957</v>
       </c>
       <c r="J21">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272956</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>25.24588</v>
       </c>
       <c r="O21">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P21">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q21">
-        <v>6.951626974062222</v>
+        <v>4.711846161635555</v>
       </c>
       <c r="R21">
-        <v>62.56464276656</v>
+        <v>42.40661545472</v>
       </c>
       <c r="S21">
-        <v>0.0001697887001196942</v>
+        <v>7.537155430900031E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001697887001196943</v>
+        <v>7.537155430900029E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8260706666666667</v>
+        <v>0.5599146666666667</v>
       </c>
       <c r="H22">
-        <v>2.478212</v>
+        <v>1.679744</v>
       </c>
       <c r="I22">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272957</v>
       </c>
       <c r="J22">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272956</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N22">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O22">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P22">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q22">
-        <v>84.34314669258134</v>
+        <v>64.73918502452622</v>
       </c>
       <c r="R22">
-        <v>759.088320233232</v>
+        <v>582.6526652207359</v>
       </c>
       <c r="S22">
-        <v>0.002060023257054859</v>
+        <v>0.001035579862459421</v>
       </c>
       <c r="T22">
-        <v>0.002060023257054859</v>
+        <v>0.001035579862459421</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8260706666666667</v>
+        <v>0.5599146666666667</v>
       </c>
       <c r="H23">
-        <v>2.478212</v>
+        <v>1.679744</v>
       </c>
       <c r="I23">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272957</v>
       </c>
       <c r="J23">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272956</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N23">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O23">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P23">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q23">
-        <v>3.859330561875556</v>
+        <v>1.817430562659556</v>
       </c>
       <c r="R23">
-        <v>34.73397505688</v>
+        <v>16.356875063936</v>
       </c>
       <c r="S23">
-        <v>9.426149042202543E-05</v>
+        <v>2.90719521939534E-05</v>
       </c>
       <c r="T23">
-        <v>9.426149042202544E-05</v>
+        <v>2.90719521939534E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8260706666666667</v>
+        <v>0.5599146666666667</v>
       </c>
       <c r="H24">
-        <v>2.478212</v>
+        <v>1.679744</v>
       </c>
       <c r="I24">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272957</v>
       </c>
       <c r="J24">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272956</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N24">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O24">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P24">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q24">
-        <v>143.6508186131236</v>
+        <v>119.9469910176853</v>
       </c>
       <c r="R24">
-        <v>1292.857367518112</v>
+        <v>1079.522919159168</v>
       </c>
       <c r="S24">
-        <v>0.003508572288826313</v>
+        <v>0.00191869403999228</v>
       </c>
       <c r="T24">
-        <v>0.003508572288826314</v>
+        <v>0.00191869403999228</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8260706666666667</v>
+        <v>0.5599146666666667</v>
       </c>
       <c r="H25">
-        <v>2.478212</v>
+        <v>1.679744</v>
       </c>
       <c r="I25">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272957</v>
       </c>
       <c r="J25">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272956</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N25">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O25">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P25">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q25">
-        <v>83.49559846393825</v>
+        <v>60.74268322808889</v>
       </c>
       <c r="R25">
-        <v>751.4603861754441</v>
+        <v>546.6841490528</v>
       </c>
       <c r="S25">
-        <v>0.002039322475415252</v>
+        <v>0.0009716510876516212</v>
       </c>
       <c r="T25">
-        <v>0.002039322475415253</v>
+        <v>0.0009716510876516209</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>64.38968300000001</v>
+        <v>91.28940466666667</v>
       </c>
       <c r="H26">
-        <v>193.169049</v>
+        <v>273.868214</v>
       </c>
       <c r="I26">
-        <v>0.6397464683888626</v>
+        <v>0.6824139388233083</v>
       </c>
       <c r="J26">
-        <v>0.6397464683888625</v>
+        <v>0.6824139388233081</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N26">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O26">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P26">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q26">
-        <v>1070.679633244692</v>
+        <v>1581.380704717956</v>
       </c>
       <c r="R26">
-        <v>9636.11669920223</v>
+        <v>14232.4263424616</v>
       </c>
       <c r="S26">
-        <v>0.02615061248993021</v>
+        <v>0.02529605542713251</v>
       </c>
       <c r="T26">
-        <v>0.02615061248993021</v>
+        <v>0.0252960554271325</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>64.38968300000001</v>
+        <v>91.28940466666667</v>
       </c>
       <c r="H27">
-        <v>193.169049</v>
+        <v>273.868214</v>
       </c>
       <c r="I27">
-        <v>0.6397464683888626</v>
+        <v>0.6824139388233083</v>
       </c>
       <c r="J27">
-        <v>0.6397464683888625</v>
+        <v>0.6824139388233081</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>25.24588</v>
       </c>
       <c r="O27">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P27">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q27">
-        <v>541.8580700853466</v>
+        <v>768.2271184953688</v>
       </c>
       <c r="R27">
-        <v>4876.72263076812</v>
+        <v>6914.04406645832</v>
       </c>
       <c r="S27">
-        <v>0.01323451009561229</v>
+        <v>0.01228870170990932</v>
       </c>
       <c r="T27">
-        <v>0.01323451009561229</v>
+        <v>0.01228870170990932</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>64.38968300000001</v>
+        <v>91.28940466666667</v>
       </c>
       <c r="H28">
-        <v>193.169049</v>
+        <v>273.868214</v>
       </c>
       <c r="I28">
-        <v>0.6397464683888626</v>
+        <v>0.6824139388233083</v>
       </c>
       <c r="J28">
-        <v>0.6397464683888625</v>
+        <v>0.6824139388233081</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N28">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O28">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P28">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q28">
-        <v>6574.290430468996</v>
+        <v>10555.18280076163</v>
       </c>
       <c r="R28">
-        <v>59168.61387422097</v>
+        <v>94996.64520685466</v>
       </c>
       <c r="S28">
-        <v>0.1605725149757848</v>
+        <v>0.168842637560323</v>
       </c>
       <c r="T28">
-        <v>0.1605725149757848</v>
+        <v>0.168842637560323</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>64.38968300000001</v>
+        <v>91.28940466666667</v>
       </c>
       <c r="H29">
-        <v>193.169049</v>
+        <v>273.868214</v>
       </c>
       <c r="I29">
-        <v>0.6397464683888626</v>
+        <v>0.6824139388233083</v>
       </c>
       <c r="J29">
-        <v>0.6397464683888625</v>
+        <v>0.6824139388233081</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N29">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O29">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P29">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q29">
-        <v>300.8230185368067</v>
+        <v>296.3168567737629</v>
       </c>
       <c r="R29">
-        <v>2707.40716683126</v>
+        <v>2666.851710963866</v>
       </c>
       <c r="S29">
-        <v>0.007347395001777597</v>
+        <v>0.004739938719740269</v>
       </c>
       <c r="T29">
-        <v>0.007347395001777597</v>
+        <v>0.004739938719740269</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>64.38968300000001</v>
+        <v>91.28940466666667</v>
       </c>
       <c r="H30">
-        <v>193.169049</v>
+        <v>273.868214</v>
       </c>
       <c r="I30">
-        <v>0.6397464683888626</v>
+        <v>0.6824139388233083</v>
       </c>
       <c r="J30">
-        <v>0.6397464683888625</v>
+        <v>0.6824139388233081</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N30">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O30">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P30">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q30">
-        <v>11197.1421410148</v>
+        <v>19556.35394720119</v>
       </c>
       <c r="R30">
-        <v>100774.2792691332</v>
+        <v>176007.1855248107</v>
       </c>
       <c r="S30">
-        <v>0.2734824834922647</v>
+        <v>0.3128270200370594</v>
       </c>
       <c r="T30">
-        <v>0.2734824834922647</v>
+        <v>0.3128270200370593</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>64.38968300000001</v>
+        <v>91.28940466666667</v>
       </c>
       <c r="H31">
-        <v>193.169049</v>
+        <v>273.868214</v>
       </c>
       <c r="I31">
-        <v>0.6397464683888626</v>
+        <v>0.6824139388233083</v>
       </c>
       <c r="J31">
-        <v>0.6397464683888625</v>
+        <v>0.6824139388233081</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N31">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O31">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P31">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q31">
-        <v>6508.226637174225</v>
+        <v>9903.586599651173</v>
       </c>
       <c r="R31">
-        <v>58574.03973456802</v>
+        <v>89132.27939686055</v>
       </c>
       <c r="S31">
-        <v>0.1589589523334929</v>
+        <v>0.1584195853691437</v>
       </c>
       <c r="T31">
-        <v>0.1589589523334929</v>
+        <v>0.1584195853691437</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>17.35834133333333</v>
+        <v>13.88234933333333</v>
       </c>
       <c r="H32">
-        <v>52.075024</v>
+        <v>41.647048</v>
       </c>
       <c r="I32">
-        <v>0.1724645478544819</v>
+        <v>0.1037744601717211</v>
       </c>
       <c r="J32">
-        <v>0.1724645478544819</v>
+        <v>0.103774460171721</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N32">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O32">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P32">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q32">
-        <v>288.6366521249921</v>
+        <v>240.4800365611707</v>
       </c>
       <c r="R32">
-        <v>2597.729869124928</v>
+        <v>2164.320329050536</v>
       </c>
       <c r="S32">
-        <v>0.007049751396911494</v>
+        <v>0.003846762715531668</v>
       </c>
       <c r="T32">
-        <v>0.007049751396911497</v>
+        <v>0.003846762715531667</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>17.35834133333333</v>
+        <v>13.88234933333333</v>
       </c>
       <c r="H33">
-        <v>52.075024</v>
+        <v>41.647048</v>
       </c>
       <c r="I33">
-        <v>0.1724645478544819</v>
+        <v>0.1037744601717211</v>
       </c>
       <c r="J33">
-        <v>0.1724645478544819</v>
+        <v>0.103774460171721</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>25.24588</v>
       </c>
       <c r="O33">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P33">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q33">
-        <v>146.0755341001244</v>
+        <v>116.8240417958044</v>
       </c>
       <c r="R33">
-        <v>1314.67980690112</v>
+        <v>1051.41637616224</v>
       </c>
       <c r="S33">
-        <v>0.003567794294298421</v>
+        <v>0.00186873877218287</v>
       </c>
       <c r="T33">
-        <v>0.003567794294298422</v>
+        <v>0.001868738772182869</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>17.35834133333333</v>
+        <v>13.88234933333333</v>
       </c>
       <c r="H34">
-        <v>52.075024</v>
+        <v>41.647048</v>
       </c>
       <c r="I34">
-        <v>0.1724645478544819</v>
+        <v>0.1037744601717211</v>
       </c>
       <c r="J34">
-        <v>0.1724645478544819</v>
+        <v>0.103774460171721</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N34">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O34">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P34">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q34">
-        <v>1772.314631779563</v>
+        <v>1605.123129594346</v>
       </c>
       <c r="R34">
-        <v>15950.83168601606</v>
+        <v>14446.10816634911</v>
       </c>
       <c r="S34">
-        <v>0.04328756399843513</v>
+        <v>0.02567584360454979</v>
       </c>
       <c r="T34">
-        <v>0.04328756399843515</v>
+        <v>0.02567584360454979</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>17.35834133333333</v>
+        <v>13.88234933333333</v>
       </c>
       <c r="H35">
-        <v>52.075024</v>
+        <v>41.647048</v>
       </c>
       <c r="I35">
-        <v>0.1724645478544819</v>
+        <v>0.1037744601717211</v>
       </c>
       <c r="J35">
-        <v>0.1724645478544819</v>
+        <v>0.103774460171721</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N35">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O35">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P35">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q35">
-        <v>81.09666631975111</v>
+        <v>45.06080562261244</v>
       </c>
       <c r="R35">
-        <v>729.8699968777599</v>
+        <v>405.547250603512</v>
       </c>
       <c r="S35">
-        <v>0.001980730210330167</v>
+        <v>0.0007208009008963761</v>
       </c>
       <c r="T35">
-        <v>0.001980730210330167</v>
+        <v>0.000720800900896376</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>17.35834133333333</v>
+        <v>13.88234933333333</v>
       </c>
       <c r="H36">
-        <v>52.075024</v>
+        <v>41.647048</v>
       </c>
       <c r="I36">
-        <v>0.1724645478544819</v>
+        <v>0.1037744601717211</v>
       </c>
       <c r="J36">
-        <v>0.1724645478544819</v>
+        <v>0.103774460171721</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N36">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O36">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P36">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q36">
-        <v>3018.555243416647</v>
+        <v>2973.92822499685</v>
       </c>
       <c r="R36">
-        <v>27166.99719074982</v>
+        <v>26765.35402497165</v>
       </c>
       <c r="S36">
-        <v>0.07372613244805735</v>
+        <v>0.0475715006458558</v>
       </c>
       <c r="T36">
-        <v>0.0737261324480574</v>
+        <v>0.04757150064585578</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>17.35834133333333</v>
+        <v>13.88234933333333</v>
       </c>
       <c r="H37">
-        <v>52.075024</v>
+        <v>41.647048</v>
       </c>
       <c r="I37">
-        <v>0.1724645478544819</v>
+        <v>0.1037744601717211</v>
       </c>
       <c r="J37">
-        <v>0.1724645478544819</v>
+        <v>0.103774460171721</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N37">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O37">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P37">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q37">
-        <v>1754.504979357677</v>
+        <v>1506.035112522511</v>
       </c>
       <c r="R37">
-        <v>15790.54481421909</v>
+        <v>13554.3160127026</v>
       </c>
       <c r="S37">
-        <v>0.04285257550644928</v>
+        <v>0.02409081353270455</v>
       </c>
       <c r="T37">
-        <v>0.04285257550644928</v>
+        <v>0.02409081353270454</v>
       </c>
     </row>
   </sheetData>
